--- a/StructureDefinition-MedRecordOrder.xlsx
+++ b/StructureDefinition-MedRecordOrder.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$79</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2785" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2821" uniqueCount="508">
   <si>
     <t>Path</t>
   </si>
@@ -582,6 +582,13 @@
   </si>
   <si>
     <t xml:space="preserve">Reference(CarePlan)
+</t>
+  </si>
+  <si>
+    <t>basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.hl7belgium.be/fhir/StructureDefinition/related-tl}
 </t>
   </si>
   <si>
@@ -1755,7 +1762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN78"/>
+  <dimension ref="A1:AN79"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4418,45 +4425,43 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>72</v>
+        <v>182</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>44</v>
       </c>
@@ -4504,7 +4509,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4513,7 +4518,7 @@
         <v>43</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
@@ -4525,7 +4530,7 @@
         <v>44</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>151</v>
+        <v>44</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>44</v>
@@ -4534,13 +4539,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4550,27 +4555,29 @@
         <v>43</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="I25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>187</v>
+        <v>72</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>44</v>
       </c>
@@ -4618,7 +4625,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4630,27 +4637,27 @@
         <v>44</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>194</v>
+        <v>44</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>195</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4658,31 +4665,31 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>53</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4708,13 +4715,13 @@
         <v>44</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>44</v>
@@ -4732,13 +4739,13 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>44</v>
@@ -4747,24 +4754,24 @@
         <v>64</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>44</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4772,7 +4779,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>52</v>
@@ -4781,22 +4788,22 @@
         <v>53</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4822,13 +4829,13 @@
         <v>44</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>118</v>
+        <v>202</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>44</v>
@@ -4846,10 +4853,10 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>52</v>
@@ -4861,16 +4868,16 @@
         <v>64</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>44</v>
+        <v>208</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>44</v>
@@ -4878,7 +4885,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4886,7 +4893,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>52</v>
@@ -4895,22 +4902,22 @@
         <v>53</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>128</v>
+        <v>210</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4936,13 +4943,13 @@
         <v>44</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>44</v>
@@ -4960,10 +4967,10 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>52</v>
@@ -4975,24 +4982,24 @@
         <v>64</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5000,31 +5007,31 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5050,13 +5057,13 @@
         <v>44</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>118</v>
+        <v>202</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
@@ -5074,13 +5081,13 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>44</v>
@@ -5089,16 +5096,16 @@
         <v>64</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>231</v>
+        <v>44</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
@@ -5106,7 +5113,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5117,7 +5124,7 @@
         <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>44</v>
@@ -5126,18 +5133,20 @@
         <v>44</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>128</v>
+        <v>210</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>44</v>
@@ -5162,13 +5171,13 @@
         <v>44</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>44</v>
@@ -5186,13 +5195,13 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>44</v>
@@ -5201,16 +5210,16 @@
         <v>64</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>238</v>
+        <v>44</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>44</v>
+        <v>233</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -5218,7 +5227,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5235,23 +5244,21 @@
         <v>44</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>242</v>
+        <v>128</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>44</v>
@@ -5276,13 +5283,13 @@
         <v>44</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>44</v>
+        <v>202</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>44</v>
+        <v>238</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>44</v>
+        <v>239</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>44</v>
@@ -5300,7 +5307,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5315,16 +5322,16 @@
         <v>64</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>44</v>
+        <v>242</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>44</v>
@@ -5332,7 +5339,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5349,21 +5356,23 @@
         <v>44</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>44</v>
@@ -5412,7 +5421,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5433,7 +5442,7 @@
         <v>44</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>44</v>
@@ -5444,7 +5453,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5452,7 +5461,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>52</v>
@@ -5467,17 +5476,15 @@
         <v>53</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>44</v>
@@ -5502,32 +5509,34 @@
         <v>44</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>257</v>
+        <v>44</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>258</v>
+        <v>44</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AB33" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>177</v>
+        <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>52</v>
@@ -5539,40 +5548,38 @@
         <v>64</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>259</v>
+        <v>44</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>260</v>
+        <v>44</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>263</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>44</v>
@@ -5581,16 +5588,16 @@
         <v>53</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5619,28 +5626,26 @@
         <v>118</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="AB34" s="2"/>
       <c r="AC34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>52</v>
@@ -5655,27 +5660,27 @@
         <v>64</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>44</v>
@@ -5697,16 +5702,16 @@
         <v>53</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>266</v>
+        <v>210</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5732,13 +5737,13 @@
         <v>44</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>44</v>
+        <v>259</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>44</v>
+        <v>260</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>44</v>
@@ -5756,7 +5761,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>52</v>
@@ -5771,32 +5776,34 @@
         <v>64</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>52</v>
@@ -5814,13 +5821,13 @@
         <v>268</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5870,7 +5877,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>52</v>
@@ -5885,24 +5892,24 @@
         <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5910,7 +5917,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>52</v>
@@ -5922,19 +5929,19 @@
         <v>44</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5984,10 +5991,10 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>52</v>
@@ -5999,24 +6006,24 @@
         <v>64</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>204</v>
+        <v>275</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6027,10 +6034,10 @@
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>44</v>
@@ -6039,15 +6046,17 @@
         <v>44</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>44</v>
@@ -6096,13 +6105,13 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>44</v>
@@ -6111,24 +6120,24 @@
         <v>64</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>44</v>
+        <v>287</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6139,25 +6148,25 @@
         <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6208,13 +6217,13 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>44</v>
@@ -6223,24 +6232,24 @@
         <v>64</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>297</v>
+        <v>44</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>300</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6263,13 +6272,13 @@
         <v>53</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6320,7 +6329,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6335,24 +6344,24 @@
         <v>64</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>44</v>
+        <v>299</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>44</v>
+        <v>302</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6366,22 +6375,22 @@
         <v>52</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6432,7 +6441,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6447,16 +6456,16 @@
         <v>64</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>44</v>
@@ -6464,7 +6473,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6484,20 +6493,18 @@
         <v>44</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>208</v>
+        <v>310</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>44</v>
@@ -6522,13 +6529,13 @@
         <v>44</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>318</v>
+        <v>44</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>319</v>
+        <v>44</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>44</v>
@@ -6546,7 +6553,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6561,16 +6568,16 @@
         <v>64</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>44</v>
+        <v>315</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>44</v>
@@ -6578,7 +6585,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6598,18 +6605,20 @@
         <v>44</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>323</v>
+        <v>210</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>44</v>
@@ -6634,13 +6643,13 @@
         <v>44</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>44</v>
+        <v>320</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>44</v>
+        <v>321</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>44</v>
@@ -6658,7 +6667,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6673,24 +6682,24 @@
         <v>64</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>44</v>
+        <v>322</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>327</v>
+        <v>44</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6701,10 +6710,10 @@
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>44</v>
@@ -6713,17 +6722,15 @@
         <v>44</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>208</v>
+        <v>325</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>44</v>
@@ -6748,13 +6755,13 @@
         <v>44</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>332</v>
+        <v>44</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>333</v>
+        <v>44</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>44</v>
@@ -6772,13 +6779,13 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>44</v>
@@ -6787,24 +6794,24 @@
         <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>334</v>
+        <v>44</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>338</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6818,7 +6825,7 @@
         <v>43</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>44</v>
@@ -6827,16 +6834,16 @@
         <v>44</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>340</v>
+        <v>210</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6862,13 +6869,13 @@
         <v>44</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>44</v>
+        <v>334</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>44</v>
+        <v>335</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>44</v>
@@ -6886,7 +6893,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6901,24 +6908,24 @@
         <v>64</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>204</v>
+        <v>337</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>44</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6938,18 +6945,20 @@
         <v>44</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>44</v>
@@ -6998,7 +7007,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7013,16 +7022,16 @@
         <v>64</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>44</v>
+        <v>339</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>44</v>
@@ -7030,7 +7039,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7053,13 +7062,13 @@
         <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>94</v>
+        <v>349</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7110,7 +7119,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7125,13 +7134,13 @@
         <v>64</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>44</v>
+        <v>352</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>44</v>
@@ -7142,7 +7151,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7165,13 +7174,13 @@
         <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7222,7 +7231,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7237,13 +7246,13 @@
         <v>64</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>359</v>
+        <v>44</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>44</v>
@@ -7254,7 +7263,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7265,7 +7274,7 @@
         <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>53</v>
@@ -7277,18 +7286,16 @@
         <v>53</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>187</v>
+        <v>358</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" t="s" s="2">
-        <v>364</v>
-      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>44</v>
       </c>
@@ -7336,13 +7343,13 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>44</v>
@@ -7351,13 +7358,13 @@
         <v>64</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>44</v>
@@ -7366,9 +7373,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7382,27 +7389,27 @@
         <v>52</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>44</v>
       </c>
@@ -7426,13 +7433,13 @@
         <v>44</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>371</v>
+        <v>44</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>372</v>
+        <v>44</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>44</v>
@@ -7450,7 +7457,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7465,13 +7472,13 @@
         <v>64</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>44</v>
+        <v>367</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>44</v>
@@ -7482,7 +7489,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7493,7 +7500,7 @@
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>44</v>
@@ -7505,15 +7512,17 @@
         <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>375</v>
+        <v>210</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>44</v>
@@ -7538,13 +7547,13 @@
         <v>44</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>44</v>
+        <v>373</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>44</v>
+        <v>374</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>44</v>
@@ -7562,13 +7571,13 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>44</v>
@@ -7577,13 +7586,13 @@
         <v>64</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>378</v>
+        <v>44</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>44</v>
@@ -7592,9 +7601,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7608,7 +7617,7 @@
         <v>43</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>44</v>
@@ -7617,13 +7626,13 @@
         <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7674,7 +7683,7 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7689,13 +7698,13 @@
         <v>64</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>385</v>
+        <v>44</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>44</v>
@@ -7706,7 +7715,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7729,17 +7738,15 @@
         <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>44</v>
@@ -7788,7 +7795,7 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7803,13 +7810,13 @@
         <v>64</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>44</v>
+        <v>387</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>44</v>
@@ -7818,9 +7825,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7831,10 +7838,10 @@
         <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>44</v>
@@ -7843,15 +7850,17 @@
         <v>44</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>44</v>
@@ -7900,13 +7909,13 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>44</v>
@@ -7915,13 +7924,13 @@
         <v>64</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>44</v>
+        <v>394</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>398</v>
+        <v>44</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>44</v>
@@ -7932,7 +7941,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7955,13 +7964,13 @@
         <v>44</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>54</v>
+        <v>397</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>66</v>
+        <v>398</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>67</v>
+        <v>399</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8012,7 +8021,7 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>68</v>
+        <v>396</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -8024,16 +8033,16 @@
         <v>44</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>44</v>
+        <v>400</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>69</v>
+        <v>401</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>44</v>
@@ -8044,18 +8053,18 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>44</v>
@@ -8067,17 +8076,15 @@
         <v>44</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>44</v>
@@ -8126,19 +8133,19 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>44</v>
@@ -8158,11 +8165,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>403</v>
+        <v>71</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8175,26 +8182,24 @@
         <v>44</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>404</v>
+        <v>73</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>405</v>
+        <v>74</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="N57" t="s" s="2">
-        <v>184</v>
-      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>44</v>
       </c>
@@ -8242,7 +8247,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8263,7 +8268,7 @@
         <v>44</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>44</v>
@@ -8274,41 +8279,43 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>44</v>
+        <v>405</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>395</v>
+        <v>72</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>44</v>
       </c>
@@ -8356,19 +8363,19 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>44</v>
@@ -8377,7 +8384,7 @@
         <v>44</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>411</v>
+        <v>151</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>44</v>
@@ -8388,7 +8395,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8411,15 +8418,17 @@
         <v>44</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>54</v>
+        <v>397</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>66</v>
+        <v>410</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>44</v>
@@ -8468,7 +8477,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>68</v>
+        <v>409</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8480,7 +8489,7 @@
         <v>44</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>44</v>
@@ -8489,7 +8498,7 @@
         <v>44</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>69</v>
+        <v>413</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>44</v>
@@ -8500,18 +8509,18 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>44</v>
@@ -8523,17 +8532,15 @@
         <v>44</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>44</v>
@@ -8582,19 +8589,19 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>44</v>
@@ -8614,11 +8621,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>403</v>
+        <v>71</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8631,26 +8638,24 @@
         <v>44</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>404</v>
+        <v>73</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>405</v>
+        <v>74</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="N61" t="s" s="2">
-        <v>184</v>
-      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>44</v>
       </c>
@@ -8698,7 +8703,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8719,7 +8724,7 @@
         <v>44</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>44</v>
@@ -8730,39 +8735,43 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>44</v>
+        <v>405</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>416</v>
+        <v>72</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>44</v>
       </c>
@@ -8810,19 +8819,19 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>44</v>
@@ -8831,7 +8840,7 @@
         <v>44</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>419</v>
+        <v>151</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>44</v>
@@ -8842,7 +8851,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8865,13 +8874,13 @@
         <v>44</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8922,7 +8931,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8943,7 +8952,7 @@
         <v>44</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>44</v>
@@ -8954,7 +8963,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8977,13 +8986,13 @@
         <v>44</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9034,7 +9043,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9055,7 +9064,7 @@
         <v>44</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>44</v>
@@ -9066,7 +9075,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9089,20 +9098,16 @@
         <v>44</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="K65" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>433</v>
-      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>44</v>
       </c>
@@ -9150,7 +9155,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9168,10 +9173,10 @@
         <v>44</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>434</v>
+        <v>44</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>44</v>
@@ -9182,7 +9187,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9205,18 +9210,20 @@
         <v>44</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>44</v>
       </c>
@@ -9264,7 +9271,7 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9282,21 +9289,21 @@
         <v>44</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>443</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9319,15 +9326,17 @@
         <v>44</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>44</v>
@@ -9376,7 +9385,7 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9394,21 +9403,21 @@
         <v>44</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9431,17 +9440,15 @@
         <v>44</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>453</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>44</v>
@@ -9490,7 +9497,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9508,21 +9515,21 @@
         <v>44</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>44</v>
+        <v>451</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9545,15 +9552,17 @@
         <v>44</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>457</v>
+        <v>423</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>44</v>
@@ -9602,7 +9611,7 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9620,13 +9629,13 @@
         <v>44</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>44</v>
+        <v>456</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>327</v>
+        <v>44</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>44</v>
@@ -9634,7 +9643,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9657,13 +9666,13 @@
         <v>44</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>395</v>
+        <v>459</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9714,7 +9723,7 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9732,13 +9741,13 @@
         <v>44</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>464</v>
+        <v>44</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>44</v>
+        <v>329</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>44</v>
@@ -9746,7 +9755,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9769,13 +9778,13 @@
         <v>44</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>54</v>
+        <v>397</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>66</v>
+        <v>464</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>67</v>
+        <v>465</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9826,7 +9835,7 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>68</v>
+        <v>463</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -9838,16 +9847,16 @@
         <v>44</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>44</v>
+        <v>466</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>69</v>
+        <v>467</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>44</v>
@@ -9858,18 +9867,18 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>44</v>
@@ -9881,17 +9890,15 @@
         <v>44</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>44</v>
@@ -9940,19 +9947,19 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>44</v>
@@ -9972,11 +9979,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>403</v>
+        <v>71</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9989,26 +9996,24 @@
         <v>44</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>72</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>404</v>
+        <v>73</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>405</v>
+        <v>74</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="N73" t="s" s="2">
-        <v>184</v>
-      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>44</v>
       </c>
@@ -10056,7 +10061,7 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
@@ -10077,7 +10082,7 @@
         <v>44</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>44</v>
@@ -10088,41 +10093,43 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>44</v>
+        <v>405</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>470</v>
+        <v>72</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>471</v>
+        <v>406</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>472</v>
+        <v>407</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>44</v>
       </c>
@@ -10146,13 +10153,13 @@
         <v>44</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>474</v>
+        <v>44</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>475</v>
+        <v>44</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>44</v>
@@ -10170,39 +10177,39 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>469</v>
+        <v>408</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>464</v>
+        <v>44</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>476</v>
+        <v>151</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>477</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10210,7 +10217,7 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>52</v>
@@ -10225,15 +10232,17 @@
         <v>44</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>208</v>
+        <v>472</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>44</v>
@@ -10261,10 +10270,10 @@
         <v>118</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>44</v>
@@ -10282,10 +10291,10 @@
         <v>44</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>52</v>
@@ -10300,21 +10309,21 @@
         <v>44</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10337,13 +10346,13 @@
         <v>44</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>487</v>
+        <v>210</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10370,13 +10379,13 @@
         <v>44</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>44</v>
+        <v>483</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>44</v>
+        <v>484</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>44</v>
@@ -10394,7 +10403,7 @@
         <v>44</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10409,35 +10418,35 @@
         <v>64</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>490</v>
+        <v>44</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>44</v>
+        <v>487</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>493</v>
+        <v>44</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>44</v>
@@ -10449,17 +10458,15 @@
         <v>44</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>497</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>44</v>
@@ -10508,13 +10515,13 @@
         <v>44</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>44</v>
@@ -10523,13 +10530,13 @@
         <v>64</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>44</v>
+        <v>492</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>44</v>
+        <v>485</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>44</v>
@@ -10540,11 +10547,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>44</v>
+        <v>495</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10563,16 +10570,16 @@
         <v>44</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10622,7 +10629,7 @@
         <v>44</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -10637,23 +10644,137 @@
         <v>64</v>
       </c>
       <c r="AJ78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="AK78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL78" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="AM78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN78" t="s" s="2">
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN79" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN78">
+  <autoFilter ref="A1:AN79">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10663,7 +10784,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI77">
+  <conditionalFormatting sqref="A2:AI78">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-MedRecordOrder.xlsx
+++ b/StructureDefinition-MedRecordOrder.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$84</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2821" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2997" uniqueCount="510">
   <si>
     <t>Path</t>
   </si>
@@ -590,6 +590,12 @@
   <si>
     <t xml:space="preserve">Extension {https://www.hl7belgium.be/fhir/StructureDefinition/related-tl}
 </t>
+  </si>
+  <si>
+    <t>https://www.hl7belgium.be/fhir/StructureDefinition/related-tl</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
     <t>MedicationRequest.modifierExtension</t>
@@ -1762,7 +1768,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN79"/>
+  <dimension ref="A1:AN84"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4541,43 +4547,39 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>184</v>
+        <v>66</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>44</v>
       </c>
@@ -4625,19 +4627,19 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>187</v>
+        <v>68</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>44</v>
@@ -4646,7 +4648,7 @@
         <v>44</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>44</v>
@@ -4655,9 +4657,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4668,10 +4670,10 @@
         <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>44</v>
@@ -4680,17 +4682,15 @@
         <v>44</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>44</v>
@@ -4727,19 +4727,19 @@
         <v>44</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4751,27 +4751,27 @@
         <v>44</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>193</v>
+        <v>44</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>194</v>
+        <v>44</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>195</v>
+        <v>44</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>196</v>
+        <v>44</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>197</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4785,25 +4785,25 @@
         <v>52</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4811,7 +4811,7 @@
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>44</v>
@@ -4829,13 +4829,13 @@
         <v>44</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>203</v>
+        <v>44</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>204</v>
+        <v>44</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>44</v>
@@ -4853,7 +4853,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>52</v>
@@ -4865,27 +4865,27 @@
         <v>44</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>205</v>
+        <v>44</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>206</v>
+        <v>44</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>208</v>
+        <v>44</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4899,7 +4899,7 @@
         <v>52</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>44</v>
@@ -4908,17 +4908,15 @@
         <v>44</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>44</v>
@@ -4943,31 +4941,29 @@
         <v>44</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>214</v>
+        <v>44</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>215</v>
+        <v>44</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4982,13 +4978,13 @@
         <v>64</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>216</v>
+        <v>44</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>44</v>
@@ -4997,42 +4993,42 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>44</v>
@@ -5057,13 +5053,13 @@
         <v>44</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>222</v>
+        <v>44</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>223</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
@@ -5081,10 +5077,10 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>52</v>
@@ -5096,16 +5092,16 @@
         <v>64</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>226</v>
+        <v>44</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
@@ -5113,11 +5109,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5130,24 +5126,26 @@
         <v>44</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>44</v>
       </c>
@@ -5171,13 +5169,13 @@
         <v>44</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>231</v>
+        <v>44</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>232</v>
+        <v>44</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>44</v>
@@ -5195,7 +5193,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5207,27 +5205,27 @@
         <v>44</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>233</v>
+        <v>44</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>234</v>
+        <v>151</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>226</v>
+        <v>44</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5238,27 +5236,29 @@
         <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>44</v>
@@ -5283,13 +5283,13 @@
         <v>44</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>238</v>
+        <v>44</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>239</v>
+        <v>44</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>44</v>
@@ -5307,13 +5307,13 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>44</v>
@@ -5322,24 +5322,24 @@
         <v>64</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>44</v>
+        <v>196</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>242</v>
+        <v>198</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>44</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5347,13 +5347,13 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>53</v>
@@ -5362,16 +5362,16 @@
         <v>53</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>244</v>
+        <v>128</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>245</v>
+        <v>201</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5397,13 +5397,13 @@
         <v>44</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>44</v>
+        <v>205</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>44</v>
@@ -5421,10 +5421,10 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>52</v>
@@ -5436,24 +5436,24 @@
         <v>64</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>44</v>
+        <v>208</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5467,24 +5467,26 @@
         <v>52</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>44</v>
@@ -5509,13 +5511,13 @@
         <v>44</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>44</v>
+        <v>216</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>44</v>
+        <v>217</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>44</v>
@@ -5533,7 +5535,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5548,13 +5550,13 @@
         <v>64</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>44</v>
+        <v>218</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>44</v>
@@ -5563,9 +5565,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5579,25 +5581,25 @@
         <v>52</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>255</v>
+        <v>128</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5623,29 +5625,31 @@
         <v>44</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>118</v>
+        <v>204</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AB34" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>177</v>
+        <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>52</v>
@@ -5660,28 +5664,26 @@
         <v>64</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>265</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
         <v>44</v>
       </c>
@@ -5690,28 +5692,28 @@
         <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5740,10 +5742,10 @@
         <v>118</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>44</v>
@@ -5761,13 +5763,13 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>44</v>
@@ -5776,28 +5778,26 @@
         <v>64</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>261</v>
+        <v>44</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>265</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
         <v>44</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>52</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>44</v>
@@ -5818,17 +5818,15 @@
         <v>53</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>268</v>
+        <v>128</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>44</v>
@@ -5853,13 +5851,13 @@
         <v>44</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>44</v>
+        <v>241</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>44</v>
@@ -5877,10 +5875,10 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>52</v>
@@ -5892,24 +5890,24 @@
         <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>265</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5917,31 +5915,31 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H37" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5991,10 +5989,10 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>52</v>
@@ -6006,24 +6004,24 @@
         <v>64</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>274</v>
+        <v>44</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>275</v>
+        <v>44</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>277</v>
+        <v>44</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>278</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6037,26 +6035,24 @@
         <v>52</v>
       </c>
       <c r="G38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="J38" t="s" s="2">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>44</v>
@@ -6105,7 +6101,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -6120,24 +6116,24 @@
         <v>64</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>284</v>
+        <v>44</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>206</v>
+        <v>44</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>286</v>
+        <v>44</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>287</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6145,10 +6141,10 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>44</v>
@@ -6157,18 +6153,20 @@
         <v>44</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>44</v>
@@ -6193,37 +6191,35 @@
         <v>44</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>44</v>
+        <v>261</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>44</v>
+        <v>262</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="AB39" s="2"/>
       <c r="AC39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>44</v>
@@ -6232,26 +6228,28 @@
         <v>64</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>44</v>
+        <v>264</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>44</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="C40" t="s" s="2">
         <v>44</v>
       </c>
@@ -6272,15 +6270,17 @@
         <v>53</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>295</v>
+        <v>212</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>44</v>
@@ -6305,13 +6305,13 @@
         <v>44</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>44</v>
+        <v>261</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>44</v>
+        <v>262</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>44</v>
@@ -6329,10 +6329,10 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>52</v>
@@ -6344,26 +6344,28 @@
         <v>64</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>302</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="C41" t="s" s="2">
         <v>44</v>
       </c>
@@ -6384,15 +6386,17 @@
         <v>53</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>44</v>
@@ -6441,10 +6445,10 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>303</v>
+        <v>256</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>52</v>
@@ -6456,24 +6460,24 @@
         <v>64</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>44</v>
+        <v>264</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>44</v>
+        <v>267</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6481,30 +6485,32 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>44</v>
@@ -6553,10 +6559,10 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>52</v>
@@ -6568,24 +6574,24 @@
         <v>64</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>44</v>
+        <v>277</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>44</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6599,25 +6605,25 @@
         <v>52</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>210</v>
+        <v>282</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6643,13 +6649,13 @@
         <v>44</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>320</v>
+        <v>44</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>321</v>
+        <v>44</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>44</v>
@@ -6667,7 +6673,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6682,24 +6688,24 @@
         <v>64</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>44</v>
+        <v>208</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>44</v>
+        <v>288</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>44</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6710,7 +6716,7 @@
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>44</v>
@@ -6722,13 +6728,13 @@
         <v>44</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6779,13 +6785,13 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>44</v>
@@ -6794,16 +6800,16 @@
         <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>329</v>
+        <v>288</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>44</v>
@@ -6811,7 +6817,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6822,7 +6828,7 @@
         <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>53</v>
@@ -6831,20 +6837,18 @@
         <v>44</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>210</v>
+        <v>297</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>44</v>
@@ -6869,13 +6873,13 @@
         <v>44</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>334</v>
+        <v>44</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>44</v>
@@ -6893,13 +6897,13 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>44</v>
@@ -6908,24 +6912,24 @@
         <v>64</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>340</v>
+        <v>304</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6936,29 +6940,27 @@
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>44</v>
@@ -7007,13 +7009,13 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>44</v>
@@ -7022,16 +7024,16 @@
         <v>64</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>206</v>
+        <v>44</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>347</v>
+        <v>278</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>44</v>
@@ -7039,7 +7041,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7050,7 +7052,7 @@
         <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>44</v>
@@ -7059,16 +7061,16 @@
         <v>44</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7119,13 +7121,13 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>44</v>
@@ -7134,16 +7136,16 @@
         <v>64</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>352</v>
+        <v>315</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>44</v>
+        <v>317</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>44</v>
@@ -7151,7 +7153,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>354</v>
+        <v>318</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7162,7 +7164,7 @@
         <v>42</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>44</v>
@@ -7174,15 +7176,17 @@
         <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>355</v>
+        <v>319</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>44</v>
@@ -7207,13 +7211,13 @@
         <v>44</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>44</v>
+        <v>322</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>44</v>
+        <v>323</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>44</v>
@@ -7231,13 +7235,13 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>354</v>
+        <v>318</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>44</v>
@@ -7246,13 +7250,13 @@
         <v>64</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>44</v>
+        <v>324</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>44</v>
@@ -7261,9 +7265,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7274,25 +7278,25 @@
         <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7343,13 +7347,13 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>44</v>
@@ -7358,16 +7362,16 @@
         <v>64</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>361</v>
+        <v>44</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>44</v>
@@ -7375,7 +7379,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7386,7 +7390,7 @@
         <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>53</v>
@@ -7395,21 +7399,21 @@
         <v>44</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>44</v>
       </c>
@@ -7433,13 +7437,13 @@
         <v>44</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>44</v>
+        <v>336</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>44</v>
+        <v>337</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>44</v>
@@ -7457,13 +7461,13 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>44</v>
@@ -7472,24 +7476,24 @@
         <v>64</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>44</v>
+        <v>339</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>44</v>
+        <v>341</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>44</v>
+        <v>342</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7500,7 +7504,7 @@
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>44</v>
@@ -7512,16 +7516,16 @@
         <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>210</v>
+        <v>344</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7547,13 +7551,13 @@
         <v>44</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>373</v>
+        <v>44</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>374</v>
+        <v>44</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>44</v>
@@ -7571,13 +7575,13 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>44</v>
@@ -7586,16 +7590,16 @@
         <v>64</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>44</v>
+        <v>348</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>44</v>
+        <v>208</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>44</v>
+        <v>341</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>44</v>
@@ -7603,7 +7607,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7623,16 +7627,16 @@
         <v>44</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7683,7 +7687,7 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7698,13 +7702,13 @@
         <v>64</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>380</v>
+        <v>354</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>44</v>
@@ -7713,9 +7717,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7729,22 +7733,22 @@
         <v>43</v>
       </c>
       <c r="G53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="J53" t="s" s="2">
-        <v>383</v>
+        <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7795,7 +7799,7 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7810,13 +7814,13 @@
         <v>64</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>386</v>
+        <v>44</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>387</v>
+        <v>44</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>44</v>
@@ -7827,7 +7831,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>389</v>
+        <v>359</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7838,7 +7842,7 @@
         <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>53</v>
@@ -7847,20 +7851,18 @@
         <v>44</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>391</v>
+        <v>361</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>44</v>
@@ -7909,7 +7911,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>389</v>
+        <v>359</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7924,13 +7926,13 @@
         <v>64</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>394</v>
+        <v>363</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>395</v>
+        <v>364</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>44</v>
@@ -7939,9 +7941,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>396</v>
+        <v>365</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7955,25 +7957,27 @@
         <v>52</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>397</v>
+        <v>191</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>44</v>
       </c>
@@ -8021,7 +8025,7 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>396</v>
+        <v>365</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -8036,13 +8040,13 @@
         <v>64</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>44</v>
+        <v>369</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>400</v>
+        <v>44</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>401</v>
+        <v>370</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>44</v>
@@ -8053,7 +8057,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>402</v>
+        <v>371</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8076,15 +8080,17 @@
         <v>44</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>54</v>
+        <v>212</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>66</v>
+        <v>372</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>44</v>
@@ -8109,13 +8115,13 @@
         <v>44</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>44</v>
+        <v>375</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>44</v>
+        <v>376</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>44</v>
@@ -8133,7 +8139,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>68</v>
+        <v>371</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8145,7 +8151,7 @@
         <v>44</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>44</v>
@@ -8154,7 +8160,7 @@
         <v>44</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>69</v>
+        <v>377</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>44</v>
@@ -8165,11 +8171,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8188,17 +8194,15 @@
         <v>44</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>72</v>
+        <v>379</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>73</v>
+        <v>380</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>44</v>
@@ -8247,7 +8251,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8259,16 +8263,16 @@
         <v>44</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>44</v>
+        <v>382</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>69</v>
+        <v>383</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>44</v>
@@ -8277,13 +8281,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>405</v>
+        <v>44</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8293,29 +8297,25 @@
         <v>43</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>72</v>
+        <v>385</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>44</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8375,16 +8375,16 @@
         <v>44</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>44</v>
+        <v>388</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>44</v>
+        <v>389</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>151</v>
+        <v>390</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>44</v>
@@ -8393,9 +8393,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8406,10 +8406,10 @@
         <v>42</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>44</v>
@@ -8418,16 +8418,16 @@
         <v>44</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8477,13 +8477,13 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>44</v>
@@ -8492,13 +8492,13 @@
         <v>64</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>44</v>
+        <v>396</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>44</v>
@@ -8509,7 +8509,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8532,13 +8532,13 @@
         <v>44</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>54</v>
+        <v>399</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>66</v>
+        <v>400</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>67</v>
+        <v>401</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8589,7 +8589,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>68</v>
+        <v>398</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8601,16 +8601,16 @@
         <v>44</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>44</v>
+        <v>402</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>69</v>
+        <v>403</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>44</v>
@@ -8621,18 +8621,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>44</v>
@@ -8644,17 +8644,15 @@
         <v>44</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>44</v>
@@ -8703,19 +8701,19 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>44</v>
@@ -8735,11 +8733,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>405</v>
+        <v>71</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8752,26 +8750,24 @@
         <v>44</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>72</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>406</v>
+        <v>73</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>407</v>
+        <v>74</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="N62" t="s" s="2">
-        <v>186</v>
-      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>44</v>
       </c>
@@ -8819,7 +8815,7 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>408</v>
+        <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8840,7 +8836,7 @@
         <v>44</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>44</v>
@@ -8851,39 +8847,43 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>44</v>
+        <v>407</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>418</v>
+        <v>72</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>44</v>
       </c>
@@ -8931,19 +8931,19 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>44</v>
@@ -8952,7 +8952,7 @@
         <v>44</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>421</v>
+        <v>151</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>44</v>
@@ -8963,7 +8963,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8986,15 +8986,17 @@
         <v>44</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>44</v>
@@ -9043,7 +9045,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9064,7 +9066,7 @@
         <v>44</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>44</v>
@@ -9075,7 +9077,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9098,13 +9100,13 @@
         <v>44</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>423</v>
+        <v>54</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>428</v>
+        <v>66</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>429</v>
+        <v>67</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9155,7 +9157,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>427</v>
+        <v>68</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9167,7 +9169,7 @@
         <v>44</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>44</v>
@@ -9176,7 +9178,7 @@
         <v>44</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>426</v>
+        <v>69</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>44</v>
@@ -9187,18 +9189,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>44</v>
@@ -9210,20 +9212,18 @@
         <v>44</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>431</v>
+        <v>72</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>432</v>
+        <v>73</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>433</v>
+        <v>74</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>44</v>
       </c>
@@ -9271,28 +9271,28 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>436</v>
+        <v>44</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>437</v>
+        <v>69</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>44</v>
@@ -9303,41 +9303,43 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>44</v>
+        <v>407</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>439</v>
+        <v>72</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>440</v>
+        <v>408</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>441</v>
+        <v>409</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>44</v>
       </c>
@@ -9385,39 +9387,39 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>443</v>
+        <v>44</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>444</v>
+        <v>151</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>445</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9440,13 +9442,13 @@
         <v>44</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>447</v>
+        <v>421</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>448</v>
+        <v>422</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9497,7 +9499,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9515,21 +9517,21 @@
         <v>44</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>449</v>
+        <v>44</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>450</v>
+        <v>423</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>451</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>452</v>
+        <v>424</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9552,17 +9554,15 @@
         <v>44</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>453</v>
+        <v>426</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>44</v>
@@ -9611,7 +9611,7 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>452</v>
+        <v>424</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9629,10 +9629,10 @@
         <v>44</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>456</v>
+        <v>44</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>457</v>
+        <v>428</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>44</v>
@@ -9643,7 +9643,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>458</v>
+        <v>429</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9666,13 +9666,13 @@
         <v>44</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>459</v>
+        <v>425</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9723,7 +9723,7 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>458</v>
+        <v>429</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9744,10 +9744,10 @@
         <v>44</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>329</v>
+        <v>44</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>44</v>
@@ -9755,7 +9755,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>463</v>
+        <v>432</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9778,16 +9778,20 @@
         <v>44</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>464</v>
+        <v>434</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>44</v>
       </c>
@@ -9835,7 +9839,7 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>463</v>
+        <v>432</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -9853,10 +9857,10 @@
         <v>44</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>466</v>
+        <v>438</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>467</v>
+        <v>439</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>44</v>
@@ -9867,7 +9871,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>468</v>
+        <v>440</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9890,15 +9894,17 @@
         <v>44</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>54</v>
+        <v>441</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>66</v>
+        <v>442</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>44</v>
@@ -9947,7 +9953,7 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>68</v>
+        <v>440</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -9959,38 +9965,38 @@
         <v>44</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>44</v>
+        <v>445</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>69</v>
+        <v>446</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>44</v>
+        <v>447</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>44</v>
@@ -10002,17 +10008,15 @@
         <v>44</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>72</v>
+        <v>420</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>73</v>
+        <v>449</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>44</v>
@@ -10061,75 +10065,73 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>44</v>
+        <v>451</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>69</v>
+        <v>452</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>44</v>
+        <v>453</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>405</v>
+        <v>44</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>72</v>
+        <v>425</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>44</v>
       </c>
@@ -10177,28 +10179,28 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>44</v>
+        <v>458</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>151</v>
+        <v>459</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>44</v>
@@ -10209,7 +10211,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10217,7 +10219,7 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>52</v>
@@ -10232,17 +10234,15 @@
         <v>44</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>44</v>
@@ -10267,13 +10267,13 @@
         <v>44</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>476</v>
+        <v>44</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>477</v>
+        <v>44</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>44</v>
@@ -10291,10 +10291,10 @@
         <v>44</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>52</v>
@@ -10309,21 +10309,21 @@
         <v>44</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>466</v>
+        <v>44</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>479</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10346,13 +10346,13 @@
         <v>44</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>210</v>
+        <v>399</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10379,13 +10379,13 @@
         <v>44</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>483</v>
+        <v>44</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>484</v>
+        <v>44</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>44</v>
@@ -10403,7 +10403,7 @@
         <v>44</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10421,21 +10421,21 @@
         <v>44</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>487</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10458,13 +10458,13 @@
         <v>44</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>489</v>
+        <v>54</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>490</v>
+        <v>66</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>491</v>
+        <v>67</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10515,7 +10515,7 @@
         <v>44</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>488</v>
+        <v>68</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
@@ -10527,16 +10527,16 @@
         <v>44</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>492</v>
+        <v>44</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>485</v>
+        <v>44</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>493</v>
+        <v>69</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>44</v>
@@ -10547,11 +10547,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>495</v>
+        <v>71</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10570,16 +10570,16 @@
         <v>44</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>496</v>
+        <v>72</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>497</v>
+        <v>73</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>498</v>
+        <v>74</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>499</v>
+        <v>75</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10629,7 +10629,7 @@
         <v>44</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>494</v>
+        <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -10641,7 +10641,7 @@
         <v>44</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>44</v>
@@ -10650,7 +10650,7 @@
         <v>44</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>500</v>
+        <v>69</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>44</v>
@@ -10661,11 +10661,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>501</v>
+        <v>472</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>44</v>
+        <v>407</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10678,24 +10678,26 @@
         <v>44</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>502</v>
+        <v>72</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>503</v>
+        <v>408</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>504</v>
+        <v>409</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>44</v>
       </c>
@@ -10743,7 +10745,7 @@
         <v>44</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>501</v>
+        <v>410</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -10755,26 +10757,592 @@
         <v>44</v>
       </c>
       <c r="AI79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI80" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="AJ79" t="s" s="2">
+      <c r="AJ80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="AK79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL79" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="AM79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN79" t="s" s="2">
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN79">
+  <autoFilter ref="A1:AN84">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10784,7 +11352,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI78">
+  <conditionalFormatting sqref="A2:AI83">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-MedRecordOrder.xlsx
+++ b/StructureDefinition-MedRecordOrder.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2997" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2997" uniqueCount="512">
   <si>
     <t>Path</t>
   </si>
@@ -590,6 +590,12 @@
   <si>
     <t xml:space="preserve">Extension {https://www.hl7belgium.be/fhir/StructureDefinition/related-tl}
 </t>
+  </si>
+  <si>
+    <t>Based On Extension</t>
+  </si>
+  <si>
+    <t>Extension for connecting several resources to a single Treatment Line</t>
   </si>
   <si>
     <t>https://www.hl7belgium.be/fhir/StructureDefinition/related-tl</t>
@@ -4461,10 +4467,10 @@
         <v>182</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4811,7 +4817,7 @@
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>44</v>
@@ -4914,7 +4920,7 @@
         <v>174</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5026,7 +5032,7 @@
         <v>174</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5109,7 +5115,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5135,16 +5141,16 @@
         <v>72</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>44</v>
@@ -5193,7 +5199,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5225,7 +5231,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5248,16 +5254,16 @@
         <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5307,7 +5313,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5322,24 +5328,24 @@
         <v>64</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5365,13 +5371,13 @@
         <v>128</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5397,13 +5403,13 @@
         <v>44</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>44</v>
@@ -5421,7 +5427,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>52</v>
@@ -5436,16 +5442,16 @@
         <v>64</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>44</v>
@@ -5453,7 +5459,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5476,16 +5482,16 @@
         <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5514,10 +5520,10 @@
         <v>118</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>44</v>
@@ -5535,7 +5541,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5550,13 +5556,13 @@
         <v>64</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>44</v>
@@ -5567,7 +5573,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5593,13 +5599,13 @@
         <v>128</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5625,13 +5631,13 @@
         <v>44</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>44</v>
@@ -5649,7 +5655,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>52</v>
@@ -5664,16 +5670,16 @@
         <v>64</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>44</v>
@@ -5681,7 +5687,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5704,16 +5710,16 @@
         <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5742,10 +5748,10 @@
         <v>118</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>44</v>
@@ -5763,7 +5769,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5781,13 +5787,13 @@
         <v>44</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
@@ -5795,7 +5801,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5821,10 +5827,10 @@
         <v>128</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5851,13 +5857,13 @@
         <v>44</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>44</v>
@@ -5875,7 +5881,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5890,16 +5896,16 @@
         <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>44</v>
@@ -5907,7 +5913,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5930,16 +5936,16 @@
         <v>53</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5989,7 +5995,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -6010,7 +6016,7 @@
         <v>44</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>44</v>
@@ -6021,7 +6027,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6044,13 +6050,13 @@
         <v>53</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6101,7 +6107,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -6122,7 +6128,7 @@
         <v>44</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>44</v>
@@ -6133,7 +6139,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6156,16 +6162,16 @@
         <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6194,10 +6200,10 @@
         <v>118</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>44</v>
@@ -6213,7 +6219,7 @@
         <v>177</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>52</v>
@@ -6228,27 +6234,27 @@
         <v>64</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>44</v>
@@ -6270,16 +6276,16 @@
         <v>53</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6308,10 +6314,10 @@
         <v>118</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>44</v>
@@ -6329,7 +6335,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>52</v>
@@ -6344,27 +6350,27 @@
         <v>64</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>44</v>
@@ -6386,16 +6392,16 @@
         <v>53</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6445,7 +6451,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>52</v>
@@ -6460,24 +6466,24 @@
         <v>64</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6500,16 +6506,16 @@
         <v>53</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6559,7 +6565,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>52</v>
@@ -6574,24 +6580,24 @@
         <v>64</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6614,16 +6620,16 @@
         <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6673,7 +6679,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6688,24 +6694,24 @@
         <v>64</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6728,13 +6734,13 @@
         <v>44</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6785,7 +6791,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6800,16 +6806,16 @@
         <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>44</v>
@@ -6817,7 +6823,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6840,13 +6846,13 @@
         <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6897,7 +6903,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6912,24 +6918,24 @@
         <v>64</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6952,13 +6958,13 @@
         <v>53</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7009,7 +7015,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7024,16 +7030,16 @@
         <v>64</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>44</v>
@@ -7041,7 +7047,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7064,13 +7070,13 @@
         <v>44</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7121,7 +7127,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7136,16 +7142,16 @@
         <v>64</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>44</v>
@@ -7153,7 +7159,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7176,16 +7182,16 @@
         <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7214,10 +7220,10 @@
         <v>118</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>44</v>
@@ -7235,7 +7241,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7250,13 +7256,13 @@
         <v>64</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>44</v>
@@ -7267,7 +7273,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7290,13 +7296,13 @@
         <v>44</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7347,7 +7353,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7368,10 +7374,10 @@
         <v>44</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>44</v>
@@ -7379,7 +7385,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7402,16 +7408,16 @@
         <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7440,10 +7446,10 @@
         <v>118</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>44</v>
@@ -7461,7 +7467,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7476,24 +7482,24 @@
         <v>64</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7516,16 +7522,16 @@
         <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7575,7 +7581,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7590,16 +7596,16 @@
         <v>64</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>44</v>
@@ -7607,7 +7613,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7630,13 +7636,13 @@
         <v>53</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7687,7 +7693,7 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7702,13 +7708,13 @@
         <v>64</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>44</v>
@@ -7719,7 +7725,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7745,10 +7751,10 @@
         <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7799,7 +7805,7 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7820,7 +7826,7 @@
         <v>44</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>44</v>
@@ -7831,7 +7837,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7854,13 +7860,13 @@
         <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7911,7 +7917,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7926,13 +7932,13 @@
         <v>64</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>44</v>
@@ -7943,7 +7949,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7966,17 +7972,17 @@
         <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>44</v>
@@ -8025,7 +8031,7 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -8040,13 +8046,13 @@
         <v>64</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>44</v>
@@ -8057,7 +8063,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8080,16 +8086,16 @@
         <v>44</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8118,10 +8124,10 @@
         <v>118</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>44</v>
@@ -8139,7 +8145,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8160,7 +8166,7 @@
         <v>44</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>44</v>
@@ -8171,7 +8177,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8194,13 +8200,13 @@
         <v>44</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8251,7 +8257,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8266,13 +8272,13 @@
         <v>64</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>44</v>
@@ -8283,7 +8289,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8306,13 +8312,13 @@
         <v>44</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8363,7 +8369,7 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8378,13 +8384,13 @@
         <v>64</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>44</v>
@@ -8395,7 +8401,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8418,16 +8424,16 @@
         <v>44</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8477,7 +8483,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8492,13 +8498,13 @@
         <v>64</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>44</v>
@@ -8509,7 +8515,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8532,13 +8538,13 @@
         <v>44</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8589,7 +8595,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8607,10 +8613,10 @@
         <v>44</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>44</v>
@@ -8621,7 +8627,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8733,7 +8739,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8847,11 +8853,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8873,16 +8879,16 @@
         <v>72</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>44</v>
@@ -8931,7 +8937,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8963,7 +8969,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8986,16 +8992,16 @@
         <v>44</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9045,7 +9051,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9066,7 +9072,7 @@
         <v>44</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>44</v>
@@ -9077,7 +9083,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9189,7 +9195,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9303,11 +9309,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9329,16 +9335,16 @@
         <v>72</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>44</v>
@@ -9387,7 +9393,7 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9419,7 +9425,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9442,13 +9448,13 @@
         <v>44</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9499,7 +9505,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9520,7 +9526,7 @@
         <v>44</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>44</v>
@@ -9531,7 +9537,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9554,13 +9560,13 @@
         <v>44</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9611,7 +9617,7 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9632,7 +9638,7 @@
         <v>44</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>44</v>
@@ -9643,7 +9649,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9666,13 +9672,13 @@
         <v>44</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9723,7 +9729,7 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9744,7 +9750,7 @@
         <v>44</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>44</v>
@@ -9755,7 +9761,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9778,19 +9784,19 @@
         <v>44</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>44</v>
@@ -9839,7 +9845,7 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -9857,10 +9863,10 @@
         <v>44</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>44</v>
@@ -9871,7 +9877,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9894,16 +9900,16 @@
         <v>44</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9953,7 +9959,7 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -9971,21 +9977,21 @@
         <v>44</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10008,13 +10014,13 @@
         <v>44</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10065,7 +10071,7 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
@@ -10083,21 +10089,21 @@
         <v>44</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10120,16 +10126,16 @@
         <v>44</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10179,7 +10185,7 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10197,10 +10203,10 @@
         <v>44</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>44</v>
@@ -10211,7 +10217,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10234,13 +10240,13 @@
         <v>44</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10291,7 +10297,7 @@
         <v>44</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
@@ -10312,10 +10318,10 @@
         <v>44</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>44</v>
@@ -10323,7 +10329,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10346,13 +10352,13 @@
         <v>44</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10403,7 +10409,7 @@
         <v>44</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10421,10 +10427,10 @@
         <v>44</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>44</v>
@@ -10435,7 +10441,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10547,7 +10553,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10661,11 +10667,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10687,16 +10693,16 @@
         <v>72</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>44</v>
@@ -10745,7 +10751,7 @@
         <v>44</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -10777,7 +10783,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10800,16 +10806,16 @@
         <v>44</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10838,10 +10844,10 @@
         <v>118</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>44</v>
@@ -10859,7 +10865,7 @@
         <v>44</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>52</v>
@@ -10877,21 +10883,21 @@
         <v>44</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10914,13 +10920,13 @@
         <v>44</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10950,10 +10956,10 @@
         <v>118</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>44</v>
@@ -10971,7 +10977,7 @@
         <v>44</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
@@ -10989,21 +10995,21 @@
         <v>44</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11026,13 +11032,13 @@
         <v>44</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11083,7 +11089,7 @@
         <v>44</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -11098,13 +11104,13 @@
         <v>64</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>44</v>
@@ -11115,11 +11121,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11138,16 +11144,16 @@
         <v>44</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11197,7 +11203,7 @@
         <v>44</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
@@ -11218,7 +11224,7 @@
         <v>44</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>44</v>
@@ -11229,7 +11235,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11252,16 +11258,16 @@
         <v>44</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11311,7 +11317,7 @@
         <v>44</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
@@ -11326,13 +11332,13 @@
         <v>64</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>44</v>

--- a/StructureDefinition-MedRecordOrder.xlsx
+++ b/StructureDefinition-MedRecordOrder.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$73</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2997" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2609" uniqueCount="488">
   <si>
     <t>Path</t>
   </si>
@@ -508,100 +508,18 @@
     <t>treatmentPlan</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {event-basedOn}
+    <t xml:space="preserve">Extension {http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/treatmentPlan}
 </t>
   </si>
   <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
+    <t>Based On</t>
+  </si>
+  <si>
+    <t>The Medication Treatment that this resource belongs to or is based on</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>ORC in proximity to EVN segment</t>
-  </si>
-  <si>
-    <t>MedicationRequest.extension.id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.extension.extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/event-basedOn</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>MedicationRequest.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>valueReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan)
-</t>
-  </si>
-  <si>
-    <t>basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.hl7belgium.be/fhir/StructureDefinition/related-tl}
-</t>
-  </si>
-  <si>
-    <t>Based On Extension</t>
-  </si>
-  <si>
-    <t>Extension for connecting several resources to a single Treatment Line</t>
-  </si>
-  <si>
-    <t>https://www.hl7belgium.be/fhir/StructureDefinition/related-tl</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
     <t>MedicationRequest.modifierExtension</t>
@@ -850,6 +768,13 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -1774,7 +1699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN84"/>
+  <dimension ref="A1:AN73"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3860,56 +3785,60 @@
         <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>163</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>44</v>
       </c>
@@ -3957,19 +3886,19 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>44</v>
@@ -3978,7 +3907,7 @@
         <v>44</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>44</v>
@@ -3987,9 +3916,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4000,10 +3929,10 @@
         <v>42</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>44</v>
@@ -4012,15 +3941,17 @@
         <v>44</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>44</v>
@@ -4057,19 +3988,19 @@
         <v>44</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -4081,27 +4012,27 @@
         <v>44</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>44</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4115,25 +4046,25 @@
         <v>52</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4141,7 +4072,7 @@
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>44</v>
@@ -4159,13 +4090,13 @@
         <v>44</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>44</v>
@@ -4183,7 +4114,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>52</v>
@@ -4195,27 +4126,27 @@
         <v>44</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4223,13 +4154,13 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>44</v>
@@ -4238,15 +4169,17 @@
         <v>44</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>44</v>
@@ -4271,29 +4204,31 @@
         <v>44</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AB22" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>177</v>
+        <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -4308,13 +4243,13 @@
         <v>64</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>44</v>
@@ -4323,13 +4258,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>44</v>
       </c>
@@ -4341,24 +4274,26 @@
         <v>52</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>44</v>
@@ -4383,13 +4318,13 @@
         <v>44</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>44</v>
@@ -4407,10 +4342,10 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>52</v>
@@ -4422,28 +4357,26 @@
         <v>64</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>44</v>
+        <v>202</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>151</v>
+        <v>203</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>44</v>
       </c>
@@ -4452,10 +4385,10 @@
         <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>44</v>
@@ -4464,15 +4397,17 @@
         <v>44</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>44</v>
@@ -4497,13 +4432,13 @@
         <v>44</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>44</v>
+        <v>209</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>44</v>
@@ -4521,7 +4456,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4530,22 +4465,22 @@
         <v>43</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>44</v>
@@ -4553,7 +4488,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4573,16 +4508,16 @@
         <v>44</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>66</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>67</v>
+        <v>215</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4609,13 +4544,13 @@
         <v>44</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>44</v>
+        <v>216</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>44</v>
+        <v>217</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>44</v>
@@ -4633,7 +4568,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>68</v>
+        <v>213</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4645,19 +4580,19 @@
         <v>44</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>44</v>
+        <v>218</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>69</v>
+        <v>219</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>44</v>
@@ -4665,7 +4600,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>165</v>
+        <v>221</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4676,27 +4611,29 @@
         <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>72</v>
+        <v>222</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>153</v>
+        <v>223</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>44</v>
@@ -4733,31 +4670,31 @@
         <v>44</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>44</v>
@@ -4766,7 +4703,7 @@
         <v>44</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>44</v>
+        <v>226</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>44</v>
@@ -4777,7 +4714,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>166</v>
+        <v>227</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4785,7 +4722,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>52</v>
@@ -4797,27 +4734,25 @@
         <v>44</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>94</v>
+        <v>228</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>167</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>185</v>
+        <v>44</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>44</v>
@@ -4859,10 +4794,10 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>52</v>
@@ -4871,7 +4806,7 @@
         <v>44</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>44</v>
@@ -4880,7 +4815,7 @@
         <v>44</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>151</v>
+        <v>231</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>44</v>
@@ -4891,7 +4826,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4899,7 +4834,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>52</v>
@@ -4911,18 +4846,20 @@
         <v>44</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>173</v>
+        <v>233</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>174</v>
+        <v>234</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>44</v>
@@ -4947,32 +4884,32 @@
         <v>44</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>44</v>
+        <v>237</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>44</v>
+        <v>238</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>176</v>
+        <v>239</v>
       </c>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>177</v>
+        <v>240</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>52</v>
@@ -4984,27 +4921,27 @@
         <v>64</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>44</v>
+        <v>241</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>44</v>
+        <v>242</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>151</v>
+        <v>243</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>44</v>
+        <v>244</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>44</v>
+        <v>245</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>179</v>
+        <v>246</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>44</v>
@@ -5017,24 +4954,26 @@
         <v>52</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>174</v>
+        <v>234</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>44</v>
@@ -5059,13 +4998,13 @@
         <v>44</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>44</v>
+        <v>237</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>44</v>
+        <v>238</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
@@ -5083,10 +5022,10 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>52</v>
@@ -5098,60 +5037,60 @@
         <v>64</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>44</v>
+        <v>241</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>44</v>
+        <v>242</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>151</v>
+        <v>243</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>44</v>
+        <v>244</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>44</v>
+        <v>245</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="C30" t="s" s="2">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="I30" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="J30" t="s" s="2">
-        <v>72</v>
+        <v>248</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>44</v>
       </c>
@@ -5199,39 +5138,39 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>44</v>
+        <v>241</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>44</v>
+        <v>242</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>151</v>
+        <v>243</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>44</v>
+        <v>244</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>44</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5239,10 +5178,10 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>53</v>
@@ -5251,19 +5190,19 @@
         <v>44</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>195</v>
+        <v>252</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5313,13 +5252,13 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>44</v>
@@ -5328,24 +5267,24 @@
         <v>64</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>198</v>
+        <v>255</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>199</v>
+        <v>256</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>201</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5353,7 +5292,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>52</v>
@@ -5362,22 +5301,22 @@
         <v>53</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>128</v>
+        <v>260</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>203</v>
+        <v>261</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>204</v>
+        <v>262</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>205</v>
+        <v>263</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5403,13 +5342,13 @@
         <v>44</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>206</v>
+        <v>44</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>207</v>
+        <v>44</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>208</v>
+        <v>44</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>44</v>
@@ -5427,10 +5366,10 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>52</v>
@@ -5442,24 +5381,24 @@
         <v>64</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>209</v>
+        <v>264</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>211</v>
+        <v>265</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>212</v>
+        <v>266</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>44</v>
+        <v>267</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>213</v>
+        <v>268</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5470,10 +5409,10 @@
         <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>44</v>
@@ -5482,17 +5421,15 @@
         <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>214</v>
+        <v>269</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>44</v>
@@ -5517,13 +5454,13 @@
         <v>44</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>218</v>
+        <v>44</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>44</v>
@@ -5541,13 +5478,13 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>213</v>
+        <v>268</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>44</v>
@@ -5556,16 +5493,16 @@
         <v>64</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>44</v>
+        <v>266</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>44</v>
@@ -5573,7 +5510,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>222</v>
+        <v>274</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5581,7 +5518,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>52</v>
@@ -5590,23 +5527,21 @@
         <v>53</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>128</v>
+        <v>275</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>44</v>
@@ -5631,13 +5566,13 @@
         <v>44</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>206</v>
+        <v>44</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>226</v>
+        <v>44</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>227</v>
+        <v>44</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>44</v>
@@ -5655,10 +5590,10 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>222</v>
+        <v>274</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>52</v>
@@ -5670,24 +5605,24 @@
         <v>64</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>44</v>
+        <v>279</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>229</v>
+        <v>280</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>230</v>
+        <v>281</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>44</v>
+        <v>282</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>231</v>
+        <v>283</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5698,29 +5633,27 @@
         <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>214</v>
+        <v>284</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>44</v>
@@ -5745,13 +5678,13 @@
         <v>44</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>235</v>
+        <v>44</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>236</v>
+        <v>44</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>44</v>
@@ -5769,13 +5702,13 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>231</v>
+        <v>283</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>44</v>
@@ -5784,16 +5717,16 @@
         <v>64</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>44</v>
+        <v>287</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>230</v>
+        <v>288</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
@@ -5801,7 +5734,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>239</v>
+        <v>289</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5821,16 +5754,16 @@
         <v>44</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>128</v>
+        <v>290</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5857,13 +5790,13 @@
         <v>44</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>206</v>
+        <v>44</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>242</v>
+        <v>44</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>243</v>
+        <v>44</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>44</v>
@@ -5881,7 +5814,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>239</v>
+        <v>289</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5896,16 +5829,16 @@
         <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>246</v>
+        <v>295</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>44</v>
@@ -5913,7 +5846,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>247</v>
+        <v>296</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5930,22 +5863,22 @@
         <v>44</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>248</v>
+        <v>188</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>249</v>
+        <v>297</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>250</v>
+        <v>298</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>251</v>
+        <v>299</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5971,13 +5904,13 @@
         <v>44</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>44</v>
+        <v>300</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>44</v>
@@ -5995,7 +5928,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>247</v>
+        <v>296</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -6010,13 +5943,13 @@
         <v>64</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>44</v>
+        <v>302</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>44</v>
@@ -6027,7 +5960,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6047,16 +5980,16 @@
         <v>44</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>255</v>
+        <v>306</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6107,7 +6040,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -6128,18 +6061,18 @@
         <v>44</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>257</v>
+        <v>308</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>44</v>
+        <v>309</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>258</v>
+        <v>310</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6147,31 +6080,31 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>262</v>
+        <v>313</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6200,32 +6133,34 @@
         <v>118</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>263</v>
+        <v>314</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>264</v>
+        <v>315</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AB39" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>177</v>
+        <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>258</v>
+        <v>310</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>44</v>
@@ -6234,28 +6169,26 @@
         <v>64</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>266</v>
+        <v>317</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>267</v>
+        <v>318</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>268</v>
+        <v>319</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>269</v>
+        <v>320</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>44</v>
       </c>
@@ -6264,28 +6197,28 @@
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>214</v>
+        <v>322</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>260</v>
+        <v>323</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>262</v>
+        <v>325</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6311,13 +6244,13 @@
         <v>44</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>263</v>
+        <v>44</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>264</v>
+        <v>44</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>44</v>
@@ -6335,13 +6268,13 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>258</v>
+        <v>321</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>44</v>
@@ -6350,28 +6283,26 @@
         <v>64</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>265</v>
+        <v>326</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>266</v>
+        <v>184</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>267</v>
+        <v>327</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>268</v>
+        <v>319</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>269</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
         <v>44</v>
       </c>
@@ -6380,10 +6311,10 @@
         <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>44</v>
@@ -6392,17 +6323,15 @@
         <v>53</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>272</v>
+        <v>329</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>260</v>
+        <v>330</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>44</v>
@@ -6451,13 +6380,13 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>258</v>
+        <v>328</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>44</v>
@@ -6466,24 +6395,24 @@
         <v>64</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>265</v>
+        <v>332</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>266</v>
+        <v>44</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>268</v>
+        <v>44</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>269</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>273</v>
+        <v>334</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6491,13 +6420,13 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>44</v>
@@ -6506,17 +6435,15 @@
         <v>53</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>274</v>
+        <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>44</v>
@@ -6565,13 +6492,13 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>273</v>
+        <v>334</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>44</v>
@@ -6580,24 +6507,24 @@
         <v>64</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>278</v>
+        <v>44</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>279</v>
+        <v>44</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>280</v>
+        <v>333</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>281</v>
+        <v>44</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>282</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>283</v>
+        <v>337</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6608,29 +6535,27 @@
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H43" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="J43" t="s" s="2">
-        <v>284</v>
+        <v>338</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>44</v>
@@ -6679,13 +6604,13 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>283</v>
+        <v>337</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>44</v>
@@ -6694,24 +6619,24 @@
         <v>64</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>288</v>
+        <v>341</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>210</v>
+        <v>44</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>290</v>
+        <v>44</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>291</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>292</v>
+        <v>343</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6722,28 +6647,30 @@
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>293</v>
+        <v>167</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+      <c r="N44" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>44</v>
       </c>
@@ -6791,13 +6718,13 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>292</v>
+        <v>343</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>44</v>
@@ -6806,24 +6733,24 @@
         <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>296</v>
+        <v>347</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>297</v>
+        <v>348</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>290</v>
+        <v>44</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>298</v>
+        <v>349</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6837,24 +6764,26 @@
         <v>52</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>299</v>
+        <v>188</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>44</v>
@@ -6879,13 +6808,13 @@
         <v>44</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>44</v>
+        <v>353</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>44</v>
+        <v>354</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>44</v>
@@ -6903,7 +6832,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>298</v>
+        <v>349</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6918,24 +6847,24 @@
         <v>64</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>303</v>
+        <v>44</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>304</v>
+        <v>355</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>305</v>
+        <v>44</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>306</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>307</v>
+        <v>356</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6946,25 +6875,25 @@
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7015,13 +6944,13 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>307</v>
+        <v>356</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>44</v>
@@ -7030,24 +6959,24 @@
         <v>64</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>312</v>
+        <v>44</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>313</v>
+        <v>362</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7058,10 +6987,10 @@
         <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>44</v>
@@ -7070,13 +6999,13 @@
         <v>44</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>314</v>
+        <v>363</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>316</v>
+        <v>365</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7127,13 +7056,13 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>313</v>
+        <v>362</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>44</v>
@@ -7142,24 +7071,24 @@
         <v>64</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>317</v>
+        <v>366</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>44</v>
+        <v>367</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>319</v>
+        <v>44</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>320</v>
+        <v>369</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7170,28 +7099,28 @@
         <v>42</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>214</v>
+        <v>370</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>321</v>
+        <v>371</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>322</v>
+        <v>372</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>323</v>
+        <v>373</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7217,13 +7146,13 @@
         <v>44</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>324</v>
+        <v>44</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>325</v>
+        <v>44</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>44</v>
@@ -7241,13 +7170,13 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>320</v>
+        <v>369</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>44</v>
@@ -7256,13 +7185,13 @@
         <v>64</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>326</v>
+        <v>374</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>327</v>
+        <v>375</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>44</v>
@@ -7273,7 +7202,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>328</v>
+        <v>376</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7296,13 +7225,13 @@
         <v>44</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>331</v>
+        <v>379</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7353,7 +7282,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>328</v>
+        <v>376</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7371,21 +7300,21 @@
         <v>44</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>44</v>
+        <v>380</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>332</v>
+        <v>381</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>333</v>
+        <v>44</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>334</v>
+        <v>382</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7396,10 +7325,10 @@
         <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>44</v>
@@ -7408,17 +7337,15 @@
         <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>214</v>
+        <v>54</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>335</v>
+        <v>66</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>44</v>
@@ -7443,13 +7370,13 @@
         <v>44</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>338</v>
+        <v>44</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>339</v>
+        <v>44</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>44</v>
@@ -7467,43 +7394,43 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>334</v>
+        <v>68</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>340</v>
+        <v>44</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>341</v>
+        <v>44</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>342</v>
+        <v>69</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>343</v>
+        <v>44</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>344</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7522,16 +7449,16 @@
         <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>346</v>
+        <v>72</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>347</v>
+        <v>73</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>348</v>
+        <v>74</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>349</v>
+        <v>75</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7581,7 +7508,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7593,19 +7520,19 @@
         <v>44</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>350</v>
+        <v>44</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>210</v>
+        <v>44</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>351</v>
+        <v>69</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>343</v>
+        <v>44</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>44</v>
@@ -7613,11 +7540,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>44</v>
+        <v>385</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7630,22 +7557,26 @@
         <v>44</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>353</v>
+        <v>72</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>354</v>
+        <v>386</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>44</v>
       </c>
@@ -7693,7 +7624,7 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7705,16 +7636,16 @@
         <v>44</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>356</v>
+        <v>44</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>357</v>
+        <v>151</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>44</v>
@@ -7725,7 +7656,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7736,7 +7667,7 @@
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>44</v>
@@ -7745,18 +7676,20 @@
         <v>44</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>94</v>
+        <v>377</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>44</v>
@@ -7805,13 +7738,13 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>44</v>
@@ -7826,7 +7759,7 @@
         <v>44</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>44</v>
@@ -7835,9 +7768,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7848,25 +7781,25 @@
         <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>362</v>
+        <v>54</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>363</v>
+        <v>66</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>364</v>
+        <v>67</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7917,28 +7850,28 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>361</v>
+        <v>68</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>365</v>
+        <v>44</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>366</v>
+        <v>69</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>44</v>
@@ -7947,43 +7880,43 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>193</v>
+        <v>72</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>368</v>
+        <v>73</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>44</v>
       </c>
@@ -8031,28 +7964,28 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>371</v>
+        <v>44</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>372</v>
+        <v>69</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>44</v>
@@ -8063,41 +7996,43 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>44</v>
+        <v>385</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>214</v>
+        <v>72</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>44</v>
       </c>
@@ -8121,13 +8056,13 @@
         <v>44</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>377</v>
+        <v>44</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>378</v>
+        <v>44</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>44</v>
@@ -8145,19 +8080,19 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>44</v>
@@ -8166,7 +8101,7 @@
         <v>44</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>379</v>
+        <v>151</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>44</v>
@@ -8177,7 +8112,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8188,7 +8123,7 @@
         <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>44</v>
@@ -8200,13 +8135,13 @@
         <v>44</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8257,13 +8192,13 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>44</v>
@@ -8272,13 +8207,13 @@
         <v>64</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>384</v>
+        <v>44</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>44</v>
@@ -8287,9 +8222,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8300,10 +8235,10 @@
         <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>44</v>
@@ -8312,13 +8247,13 @@
         <v>44</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8369,13 +8304,13 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>44</v>
@@ -8384,13 +8319,13 @@
         <v>64</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>390</v>
+        <v>44</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>391</v>
+        <v>44</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>44</v>
@@ -8399,9 +8334,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8412,10 +8347,10 @@
         <v>42</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>44</v>
@@ -8424,17 +8359,15 @@
         <v>44</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>44</v>
@@ -8483,13 +8416,13 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>44</v>
@@ -8498,13 +8431,13 @@
         <v>64</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>398</v>
+        <v>44</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>44</v>
@@ -8515,7 +8448,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8538,16 +8471,20 @@
         <v>44</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>44</v>
       </c>
@@ -8595,7 +8532,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8613,10 +8550,10 @@
         <v>44</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>44</v>
@@ -8627,7 +8564,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8650,15 +8587,17 @@
         <v>44</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>54</v>
+        <v>419</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>66</v>
+        <v>420</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>44</v>
@@ -8707,7 +8646,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>68</v>
+        <v>418</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8719,38 +8658,38 @@
         <v>44</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>44</v>
+        <v>423</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>69</v>
+        <v>424</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>44</v>
+        <v>425</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>44</v>
@@ -8762,17 +8701,15 @@
         <v>44</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>72</v>
+        <v>398</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>73</v>
+        <v>427</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>44</v>
@@ -8821,75 +8758,73 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>79</v>
+        <v>426</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>44</v>
+        <v>429</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>69</v>
+        <v>430</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>44</v>
+        <v>431</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>409</v>
+        <v>44</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>72</v>
+        <v>403</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>44</v>
       </c>
@@ -8937,28 +8872,28 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>44</v>
+        <v>436</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>151</v>
+        <v>437</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>44</v>
@@ -8969,7 +8904,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8992,17 +8927,15 @@
         <v>44</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>401</v>
+        <v>439</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>44</v>
@@ -9051,7 +8984,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9072,10 +9005,10 @@
         <v>44</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>44</v>
+        <v>309</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>44</v>
@@ -9083,7 +9016,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9106,13 +9039,13 @@
         <v>44</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>54</v>
+        <v>377</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>66</v>
+        <v>444</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>67</v>
+        <v>445</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9163,7 +9096,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>68</v>
+        <v>443</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9175,16 +9108,16 @@
         <v>44</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>44</v>
+        <v>446</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>69</v>
+        <v>447</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>44</v>
@@ -9195,18 +9128,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>419</v>
+        <v>448</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>44</v>
@@ -9218,17 +9151,15 @@
         <v>44</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>44</v>
@@ -9277,19 +9208,19 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>44</v>
@@ -9309,11 +9240,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>420</v>
+        <v>449</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>409</v>
+        <v>71</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9326,26 +9257,24 @@
         <v>44</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>72</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>410</v>
+        <v>73</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>411</v>
+        <v>74</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="N67" t="s" s="2">
-        <v>190</v>
-      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>44</v>
       </c>
@@ -9393,7 +9322,7 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9414,7 +9343,7 @@
         <v>44</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>44</v>
@@ -9425,39 +9354,43 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>44</v>
+        <v>385</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>422</v>
+        <v>72</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>44</v>
       </c>
@@ -9505,19 +9438,19 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>421</v>
+        <v>388</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>44</v>
@@ -9526,7 +9459,7 @@
         <v>44</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>425</v>
+        <v>151</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>44</v>
@@ -9537,7 +9470,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9545,7 +9478,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>52</v>
@@ -9560,15 +9493,17 @@
         <v>44</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>427</v>
+        <v>452</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>44</v>
@@ -9593,13 +9528,13 @@
         <v>44</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>44</v>
+        <v>456</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>44</v>
+        <v>457</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>44</v>
@@ -9617,10 +9552,10 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>52</v>
@@ -9635,21 +9570,21 @@
         <v>44</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>44</v>
+        <v>446</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>44</v>
+        <v>459</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>431</v>
+        <v>460</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9672,13 +9607,13 @@
         <v>44</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>427</v>
+        <v>188</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>432</v>
+        <v>461</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>433</v>
+        <v>462</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9705,13 +9640,13 @@
         <v>44</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>44</v>
+        <v>463</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>44</v>
+        <v>464</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>44</v>
@@ -9729,7 +9664,7 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>431</v>
+        <v>460</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9747,21 +9682,21 @@
         <v>44</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>44</v>
+        <v>465</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>430</v>
+        <v>466</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>44</v>
+        <v>467</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9784,20 +9719,16 @@
         <v>44</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>436</v>
+        <v>470</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>44</v>
       </c>
@@ -9845,7 +9776,7 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -9860,13 +9791,13 @@
         <v>64</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>44</v>
+        <v>472</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>441</v>
+        <v>473</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>44</v>
@@ -9877,18 +9808,18 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>442</v>
+        <v>474</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>44</v>
+        <v>475</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>44</v>
@@ -9900,16 +9831,16 @@
         <v>44</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>444</v>
+        <v>477</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>445</v>
+        <v>478</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>446</v>
+        <v>479</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9959,13 +9890,13 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>442</v>
+        <v>474</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>44</v>
@@ -9977,21 +9908,21 @@
         <v>44</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>447</v>
+        <v>44</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>448</v>
+        <v>480</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>449</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10002,7 +9933,7 @@
         <v>42</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>44</v>
@@ -10014,15 +9945,17 @@
         <v>44</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>422</v>
+        <v>482</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>451</v>
+        <v>483</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>44</v>
@@ -10071,13 +10004,13 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>44</v>
@@ -10086,1269 +10019,23 @@
         <v>64</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>44</v>
+        <v>486</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>453</v>
+        <v>44</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>454</v>
+        <v>487</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN84" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN84">
+  <autoFilter ref="A1:AN73">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11358,7 +10045,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI83">
+  <conditionalFormatting sqref="A2:AI72">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-MedRecordOrder.xlsx
+++ b/StructureDefinition-MedRecordOrder.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$84</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2609" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2997" uniqueCount="512">
   <si>
     <t>Path</t>
   </si>
@@ -508,18 +508,100 @@
     <t>treatmentPlan</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/treatmentPlan}
+    <t xml:space="preserve">Extension {event-basedOn}
 </t>
   </si>
   <si>
-    <t>Based On</t>
-  </si>
-  <si>
-    <t>The Medication Treatment that this resource belongs to or is based on</t>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>ORC in proximity to EVN segment</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/event-basedOn</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan)
+</t>
+  </si>
+  <si>
+    <t>basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/related-tl}
+</t>
+  </si>
+  <si>
+    <t>Based On Extension</t>
+  </si>
+  <si>
+    <t>Extension for connecting several resources to a single Treatment Line</t>
+  </si>
+  <si>
+    <t>http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/related-tl</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
     <t>MedicationRequest.modifierExtension</t>
@@ -768,13 +850,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -1699,7 +1774,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN73"/>
+  <dimension ref="A1:AN84"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3785,60 +3860,56 @@
         <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>44</v>
       </c>
@@ -3886,39 +3957,39 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3929,10 +4000,10 @@
         <v>42</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>44</v>
@@ -3941,17 +4012,15 @@
         <v>44</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>44</v>
@@ -3988,19 +4057,19 @@
         <v>44</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -4012,27 +4081,27 @@
         <v>44</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>171</v>
+        <v>44</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>173</v>
+        <v>44</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>174</v>
+        <v>44</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>175</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4046,25 +4115,25 @@
         <v>52</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4072,7 +4141,7 @@
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>44</v>
@@ -4090,13 +4159,13 @@
         <v>44</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>44</v>
@@ -4114,7 +4183,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>52</v>
@@ -4126,27 +4195,27 @@
         <v>44</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>186</v>
+        <v>44</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4154,13 +4223,13 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>44</v>
@@ -4169,17 +4238,15 @@
         <v>44</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>44</v>
@@ -4204,31 +4271,29 @@
         <v>44</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>193</v>
+        <v>44</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -4243,13 +4308,13 @@
         <v>64</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>194</v>
+        <v>44</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>44</v>
@@ -4258,11 +4323,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>44</v>
       </c>
@@ -4274,26 +4341,24 @@
         <v>52</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>44</v>
@@ -4318,13 +4383,13 @@
         <v>44</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>44</v>
@@ -4342,10 +4407,10 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>52</v>
@@ -4357,26 +4422,28 @@
         <v>64</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>203</v>
+        <v>151</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>204</v>
+        <v>44</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>44</v>
       </c>
@@ -4385,10 +4452,10 @@
         <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>44</v>
@@ -4397,17 +4464,15 @@
         <v>44</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>44</v>
@@ -4432,13 +4497,13 @@
         <v>44</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>209</v>
+        <v>44</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>210</v>
+        <v>44</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>44</v>
@@ -4456,7 +4521,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4465,22 +4530,22 @@
         <v>43</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>211</v>
+        <v>44</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>212</v>
+        <v>44</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>204</v>
+        <v>44</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>44</v>
@@ -4488,7 +4553,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4508,16 +4573,16 @@
         <v>44</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>214</v>
+        <v>66</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>215</v>
+        <v>67</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4544,13 +4609,13 @@
         <v>44</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>216</v>
+        <v>44</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>217</v>
+        <v>44</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>44</v>
@@ -4568,7 +4633,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>213</v>
+        <v>68</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4580,19 +4645,19 @@
         <v>44</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>218</v>
+        <v>44</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>219</v>
+        <v>69</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>44</v>
@@ -4600,7 +4665,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4611,29 +4676,27 @@
         <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>223</v>
+        <v>153</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>44</v>
@@ -4670,31 +4733,31 @@
         <v>44</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>44</v>
@@ -4703,7 +4766,7 @@
         <v>44</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>226</v>
+        <v>44</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>44</v>
@@ -4714,7 +4777,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4722,7 +4785,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>52</v>
@@ -4734,25 +4797,27 @@
         <v>44</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>228</v>
+        <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>44</v>
@@ -4794,10 +4859,10 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>52</v>
@@ -4806,7 +4871,7 @@
         <v>44</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>44</v>
@@ -4815,7 +4880,7 @@
         <v>44</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>44</v>
@@ -4826,7 +4891,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>232</v>
+        <v>172</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4834,7 +4899,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>52</v>
@@ -4846,20 +4911,18 @@
         <v>44</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>233</v>
+        <v>173</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>44</v>
@@ -4884,32 +4947,32 @@
         <v>44</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>238</v>
+        <v>44</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>239</v>
+        <v>176</v>
       </c>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>240</v>
+        <v>177</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>52</v>
@@ -4921,27 +4984,27 @@
         <v>64</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>242</v>
+        <v>44</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>243</v>
+        <v>151</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>245</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>232</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>246</v>
+        <v>179</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>44</v>
@@ -4954,26 +5017,24 @@
         <v>52</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>44</v>
@@ -4998,13 +5059,13 @@
         <v>44</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>238</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
@@ -5022,10 +5083,10 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>52</v>
@@ -5037,60 +5098,60 @@
         <v>64</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>242</v>
+        <v>44</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>243</v>
+        <v>151</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>245</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H30" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="I30" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>248</v>
+        <v>72</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>234</v>
+        <v>188</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>235</v>
+        <v>189</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>44</v>
       </c>
@@ -5138,39 +5199,39 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>242</v>
+        <v>44</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>243</v>
+        <v>151</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>245</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>249</v>
+        <v>192</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5178,10 +5239,10 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>53</v>
@@ -5190,19 +5251,19 @@
         <v>44</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>250</v>
+        <v>193</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>251</v>
+        <v>194</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>252</v>
+        <v>195</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>253</v>
+        <v>196</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5252,13 +5313,13 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>249</v>
+        <v>192</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>44</v>
@@ -5267,24 +5328,24 @@
         <v>64</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>254</v>
+        <v>197</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>255</v>
+        <v>198</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>257</v>
+        <v>200</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>258</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>202</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5292,7 +5353,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>52</v>
@@ -5301,22 +5362,22 @@
         <v>53</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>260</v>
+        <v>128</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>261</v>
+        <v>203</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>262</v>
+        <v>204</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>263</v>
+        <v>205</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5342,13 +5403,13 @@
         <v>44</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>44</v>
+        <v>208</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>44</v>
@@ -5366,10 +5427,10 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>259</v>
+        <v>202</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>52</v>
@@ -5381,24 +5442,24 @@
         <v>64</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>265</v>
+        <v>211</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>266</v>
+        <v>212</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>267</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5409,10 +5470,10 @@
         <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>44</v>
@@ -5421,15 +5482,17 @@
         <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>269</v>
+        <v>214</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>44</v>
@@ -5454,13 +5517,13 @@
         <v>44</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>44</v>
+        <v>218</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>44</v>
+        <v>219</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>44</v>
@@ -5478,13 +5541,13 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>44</v>
@@ -5493,16 +5556,16 @@
         <v>64</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>272</v>
+        <v>220</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>273</v>
+        <v>221</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>266</v>
+        <v>44</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>44</v>
@@ -5510,7 +5573,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>274</v>
+        <v>222</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5518,7 +5581,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>52</v>
@@ -5527,21 +5590,23 @@
         <v>53</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>275</v>
+        <v>128</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>44</v>
@@ -5566,13 +5631,13 @@
         <v>44</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>44</v>
+        <v>226</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>44</v>
@@ -5590,10 +5655,10 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>274</v>
+        <v>222</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>52</v>
@@ -5605,24 +5670,24 @@
         <v>64</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>278</v>
+        <v>228</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>279</v>
+        <v>44</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>280</v>
+        <v>229</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>281</v>
+        <v>230</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>282</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>283</v>
+        <v>231</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5633,27 +5698,29 @@
         <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>284</v>
+        <v>214</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>44</v>
@@ -5678,13 +5745,13 @@
         <v>44</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>44</v>
+        <v>236</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>44</v>
@@ -5702,13 +5769,13 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>283</v>
+        <v>231</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>44</v>
@@ -5717,16 +5784,16 @@
         <v>64</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>287</v>
+        <v>44</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>44</v>
+        <v>237</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
@@ -5734,7 +5801,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>289</v>
+        <v>239</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5754,16 +5821,16 @@
         <v>44</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>290</v>
+        <v>128</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>291</v>
+        <v>240</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5790,13 +5857,13 @@
         <v>44</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>44</v>
+        <v>242</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>44</v>
@@ -5814,7 +5881,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>289</v>
+        <v>239</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5829,16 +5896,16 @@
         <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>294</v>
+        <v>245</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>295</v>
+        <v>246</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>44</v>
@@ -5846,7 +5913,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>296</v>
+        <v>247</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5863,22 +5930,22 @@
         <v>44</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>297</v>
+        <v>249</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>299</v>
+        <v>251</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5904,13 +5971,13 @@
         <v>44</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>300</v>
+        <v>44</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>44</v>
@@ -5928,7 +5995,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>296</v>
+        <v>247</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5943,13 +6010,13 @@
         <v>64</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>44</v>
@@ -5960,7 +6027,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>253</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5980,16 +6047,16 @@
         <v>44</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>305</v>
+        <v>254</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>306</v>
+        <v>255</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>307</v>
+        <v>256</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6040,7 +6107,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>304</v>
+        <v>253</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -6061,18 +6128,18 @@
         <v>44</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>308</v>
+        <v>257</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>309</v>
+        <v>44</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>258</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6080,31 +6147,31 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="J39" t="s" s="2">
-        <v>188</v>
+        <v>259</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>311</v>
+        <v>260</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
+        <v>261</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>313</v>
+        <v>262</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6133,34 +6200,32 @@
         <v>118</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>314</v>
+        <v>263</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>315</v>
+        <v>264</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="AB39" s="2"/>
       <c r="AC39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>310</v>
+        <v>258</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>44</v>
@@ -6169,26 +6234,28 @@
         <v>64</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>316</v>
+        <v>265</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>317</v>
+        <v>266</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>318</v>
+        <v>267</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>319</v>
+        <v>268</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>320</v>
+        <v>269</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="C40" t="s" s="2">
         <v>44</v>
       </c>
@@ -6197,28 +6264,28 @@
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>322</v>
+        <v>214</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>323</v>
+        <v>260</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>324</v>
+        <v>261</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6244,13 +6311,13 @@
         <v>44</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>44</v>
+        <v>263</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>44</v>
+        <v>264</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>44</v>
@@ -6268,13 +6335,13 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>321</v>
+        <v>258</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>44</v>
@@ -6283,26 +6350,28 @@
         <v>64</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>326</v>
+        <v>265</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>184</v>
+        <v>266</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>327</v>
+        <v>267</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>319</v>
+        <v>268</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>44</v>
+        <v>269</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="C41" t="s" s="2">
         <v>44</v>
       </c>
@@ -6311,10 +6380,10 @@
         <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>44</v>
@@ -6323,15 +6392,17 @@
         <v>53</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>329</v>
+        <v>272</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>330</v>
+        <v>260</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>44</v>
@@ -6380,13 +6451,13 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>328</v>
+        <v>258</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>44</v>
@@ -6395,24 +6466,24 @@
         <v>64</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>332</v>
+        <v>265</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>44</v>
+        <v>266</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>44</v>
+        <v>268</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>44</v>
+        <v>269</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>334</v>
+        <v>273</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6420,13 +6491,13 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>44</v>
@@ -6435,15 +6506,17 @@
         <v>53</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>94</v>
+        <v>274</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>335</v>
+        <v>275</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>44</v>
@@ -6492,13 +6565,13 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>334</v>
+        <v>273</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>44</v>
@@ -6507,24 +6580,24 @@
         <v>64</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>44</v>
+        <v>278</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>44</v>
+        <v>279</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>333</v>
+        <v>280</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>44</v>
+        <v>281</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>44</v>
+        <v>282</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>337</v>
+        <v>283</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6535,27 +6608,29 @@
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>338</v>
+        <v>284</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>339</v>
+        <v>285</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>44</v>
@@ -6604,13 +6679,13 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>337</v>
+        <v>283</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>44</v>
@@ -6619,24 +6694,24 @@
         <v>64</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>342</v>
+        <v>289</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>44</v>
+        <v>291</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>292</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6647,30 +6722,28 @@
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>167</v>
+        <v>293</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>345</v>
+        <v>295</v>
       </c>
       <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>346</v>
-      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>44</v>
       </c>
@@ -6718,13 +6791,13 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>343</v>
+        <v>292</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>44</v>
@@ -6733,24 +6806,24 @@
         <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>347</v>
+        <v>296</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>348</v>
+        <v>297</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>349</v>
+        <v>298</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6764,26 +6837,24 @@
         <v>52</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>188</v>
+        <v>299</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>44</v>
@@ -6808,13 +6879,13 @@
         <v>44</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>353</v>
+        <v>44</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>354</v>
+        <v>44</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>44</v>
@@ -6832,7 +6903,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>349</v>
+        <v>298</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6847,24 +6918,24 @@
         <v>64</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>44</v>
+        <v>302</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>44</v>
+        <v>303</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>355</v>
+        <v>304</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>44</v>
+        <v>305</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>44</v>
+        <v>306</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6875,25 +6946,25 @@
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>357</v>
+        <v>308</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>359</v>
+        <v>310</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6944,13 +7015,13 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>44</v>
@@ -6959,24 +7030,24 @@
         <v>64</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>361</v>
+        <v>280</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>44</v>
+        <v>312</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6987,10 +7058,10 @@
         <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>44</v>
@@ -6999,13 +7070,13 @@
         <v>44</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>363</v>
+        <v>314</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>364</v>
+        <v>315</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>365</v>
+        <v>316</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7056,13 +7127,13 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>44</v>
@@ -7071,24 +7142,24 @@
         <v>64</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>366</v>
+        <v>317</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>367</v>
+        <v>44</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>44</v>
+        <v>319</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7099,28 +7170,28 @@
         <v>42</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="J48" t="s" s="2">
-        <v>370</v>
+        <v>214</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7146,13 +7217,13 @@
         <v>44</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>44</v>
+        <v>324</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>44</v>
+        <v>325</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>44</v>
@@ -7170,13 +7241,13 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>44</v>
@@ -7185,13 +7256,13 @@
         <v>64</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>375</v>
+        <v>327</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>44</v>
@@ -7202,7 +7273,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>376</v>
+        <v>328</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7225,13 +7296,13 @@
         <v>44</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7282,7 +7353,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>376</v>
+        <v>328</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7300,21 +7371,21 @@
         <v>44</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>380</v>
+        <v>44</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>44</v>
+        <v>333</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7325,10 +7396,10 @@
         <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>44</v>
@@ -7337,15 +7408,17 @@
         <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>54</v>
+        <v>214</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>66</v>
+        <v>335</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>44</v>
@@ -7370,13 +7443,13 @@
         <v>44</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>44</v>
+        <v>338</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>44</v>
+        <v>339</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>44</v>
@@ -7394,43 +7467,43 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>68</v>
+        <v>334</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>44</v>
+        <v>340</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>44</v>
+        <v>341</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>69</v>
+        <v>342</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>44</v>
+        <v>343</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>44</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7449,16 +7522,16 @@
         <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>72</v>
+        <v>346</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>73</v>
+        <v>347</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>74</v>
+        <v>348</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>75</v>
+        <v>349</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7508,7 +7581,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7520,19 +7593,19 @@
         <v>44</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>44</v>
+        <v>350</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>69</v>
+        <v>351</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>44</v>
+        <v>343</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>44</v>
@@ -7540,11 +7613,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>385</v>
+        <v>44</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7557,26 +7630,22 @@
         <v>44</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>72</v>
+        <v>353</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>44</v>
       </c>
@@ -7624,7 +7693,7 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7636,16 +7705,16 @@
         <v>44</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>44</v>
+        <v>356</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>151</v>
+        <v>357</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>44</v>
@@ -7656,7 +7725,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7667,7 +7736,7 @@
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>44</v>
@@ -7676,20 +7745,18 @@
         <v>44</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>377</v>
+        <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>44</v>
@@ -7738,13 +7805,13 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>44</v>
@@ -7759,7 +7826,7 @@
         <v>44</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>44</v>
@@ -7768,9 +7835,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7781,25 +7848,25 @@
         <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>54</v>
+        <v>362</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>66</v>
+        <v>363</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>67</v>
+        <v>364</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7850,28 +7917,28 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>68</v>
+        <v>361</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>44</v>
+        <v>365</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>69</v>
+        <v>366</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>44</v>
@@ -7880,43 +7947,43 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>72</v>
+        <v>193</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>73</v>
+        <v>368</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>44</v>
       </c>
@@ -7964,28 +8031,28 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>44</v>
+        <v>371</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>69</v>
+        <v>372</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>44</v>
@@ -7996,43 +8063,41 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>385</v>
+        <v>44</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>72</v>
+        <v>214</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>44</v>
       </c>
@@ -8056,13 +8121,13 @@
         <v>44</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>44</v>
+        <v>377</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>44</v>
+        <v>378</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>44</v>
@@ -8080,19 +8145,19 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>44</v>
@@ -8101,7 +8166,7 @@
         <v>44</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>151</v>
+        <v>379</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>44</v>
@@ -8112,7 +8177,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8123,7 +8188,7 @@
         <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>44</v>
@@ -8135,13 +8200,13 @@
         <v>44</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8192,13 +8257,13 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>44</v>
@@ -8207,13 +8272,13 @@
         <v>64</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>44</v>
+        <v>384</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>44</v>
@@ -8222,9 +8287,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8235,10 +8300,10 @@
         <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>44</v>
@@ -8247,13 +8312,13 @@
         <v>44</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8304,13 +8369,13 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>44</v>
@@ -8319,13 +8384,13 @@
         <v>64</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>44</v>
+        <v>390</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>44</v>
+        <v>391</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>44</v>
@@ -8334,9 +8399,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8347,10 +8412,10 @@
         <v>42</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>44</v>
@@ -8359,15 +8424,17 @@
         <v>44</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>44</v>
@@ -8416,13 +8483,13 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>44</v>
@@ -8431,13 +8498,13 @@
         <v>64</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>44</v>
+        <v>398</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>44</v>
@@ -8448,7 +8515,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8471,20 +8538,16 @@
         <v>44</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>44</v>
       </c>
@@ -8532,7 +8595,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8550,10 +8613,10 @@
         <v>44</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>44</v>
@@ -8564,7 +8627,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8587,17 +8650,15 @@
         <v>44</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>419</v>
+        <v>54</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>420</v>
+        <v>66</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>44</v>
@@ -8646,7 +8707,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>418</v>
+        <v>68</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8658,38 +8719,38 @@
         <v>44</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>423</v>
+        <v>44</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>424</v>
+        <v>69</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>425</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>44</v>
@@ -8701,15 +8762,17 @@
         <v>44</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>398</v>
+        <v>72</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>427</v>
+        <v>73</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>44</v>
@@ -8758,73 +8821,75 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>429</v>
+        <v>44</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>430</v>
+        <v>69</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>431</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>44</v>
+        <v>409</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>403</v>
+        <v>72</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>44</v>
       </c>
@@ -8872,28 +8937,28 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>436</v>
+        <v>44</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>437</v>
+        <v>151</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>44</v>
@@ -8904,7 +8969,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8927,15 +8992,17 @@
         <v>44</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>440</v>
+        <v>414</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>44</v>
@@ -8984,7 +9051,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9005,10 +9072,10 @@
         <v>44</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>309</v>
+        <v>44</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>44</v>
@@ -9016,7 +9083,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9039,13 +9106,13 @@
         <v>44</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>377</v>
+        <v>54</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>444</v>
+        <v>66</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>445</v>
+        <v>67</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9096,7 +9163,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>443</v>
+        <v>68</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9108,16 +9175,16 @@
         <v>44</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>446</v>
+        <v>44</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>447</v>
+        <v>69</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>44</v>
@@ -9128,18 +9195,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>448</v>
+        <v>419</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>44</v>
@@ -9151,15 +9218,17 @@
         <v>44</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>44</v>
@@ -9208,19 +9277,19 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>44</v>
@@ -9240,11 +9309,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>449</v>
+        <v>420</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>71</v>
+        <v>409</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9257,24 +9326,26 @@
         <v>44</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>72</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>73</v>
+        <v>410</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>74</v>
+        <v>411</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="N67" s="2"/>
+      <c r="N67" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>44</v>
       </c>
@@ -9322,7 +9393,7 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9343,7 +9414,7 @@
         <v>44</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>44</v>
@@ -9354,43 +9425,39 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>450</v>
+        <v>421</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>385</v>
+        <v>44</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>72</v>
+        <v>422</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>386</v>
+        <v>423</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>44</v>
       </c>
@@ -9438,19 +9505,19 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>388</v>
+        <v>421</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>44</v>
@@ -9459,7 +9526,7 @@
         <v>44</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>151</v>
+        <v>425</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>44</v>
@@ -9470,7 +9537,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9478,7 +9545,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>52</v>
@@ -9493,17 +9560,15 @@
         <v>44</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>44</v>
@@ -9528,13 +9593,13 @@
         <v>44</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>456</v>
+        <v>44</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>457</v>
+        <v>44</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>44</v>
@@ -9552,10 +9617,10 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>52</v>
@@ -9570,21 +9635,21 @@
         <v>44</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>446</v>
+        <v>44</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>459</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>460</v>
+        <v>431</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9607,13 +9672,13 @@
         <v>44</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>188</v>
+        <v>427</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>461</v>
+        <v>432</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>462</v>
+        <v>433</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9640,13 +9705,13 @@
         <v>44</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>463</v>
+        <v>44</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>464</v>
+        <v>44</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>44</v>
@@ -9664,7 +9729,7 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>460</v>
+        <v>431</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9682,21 +9747,21 @@
         <v>44</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>465</v>
+        <v>44</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>466</v>
+        <v>430</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>467</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>468</v>
+        <v>434</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9719,16 +9784,20 @@
         <v>44</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>469</v>
+        <v>435</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>470</v>
+        <v>436</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>44</v>
       </c>
@@ -9776,7 +9845,7 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>468</v>
+        <v>434</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -9791,13 +9860,13 @@
         <v>64</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>472</v>
+        <v>44</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>44</v>
@@ -9808,18 +9877,18 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>475</v>
+        <v>44</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>44</v>
@@ -9831,16 +9900,16 @@
         <v>44</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>476</v>
+        <v>443</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>478</v>
+        <v>445</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>479</v>
+        <v>446</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9890,13 +9959,13 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>44</v>
@@ -9908,21 +9977,21 @@
         <v>44</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>44</v>
+        <v>447</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>480</v>
+        <v>448</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>44</v>
+        <v>449</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>481</v>
+        <v>450</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9933,7 +10002,7 @@
         <v>42</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>44</v>
@@ -9945,17 +10014,15 @@
         <v>44</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>482</v>
+        <v>422</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>44</v>
@@ -10004,13 +10071,13 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>481</v>
+        <v>450</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>44</v>
@@ -10019,23 +10086,1269 @@
         <v>64</v>
       </c>
       <c r="AJ73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="AK73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL73" t="s" s="2">
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="X81" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="AM73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN73" t="s" s="2">
+      <c r="Y81" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN73">
+  <autoFilter ref="A1:AN84">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10045,7 +11358,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI72">
+  <conditionalFormatting sqref="A2:AI83">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-MedRecordOrder.xlsx
+++ b/StructureDefinition-MedRecordOrder.xlsx
@@ -588,7 +588,7 @@
     <t>basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/related-tl}
+    <t xml:space="preserve">Extension {https://www.hl7belgium.be/fhir/StructureDefinition/related-tl}
 </t>
   </si>
   <si>
@@ -598,7 +598,7 @@
     <t>Extension for connecting several resources to a single Treatment Line</t>
   </si>
   <si>
-    <t>http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/related-tl</t>
+    <t>https://www.hl7belgium.be/fhir/StructureDefinition/related-tl</t>
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>

--- a/StructureDefinition-MedRecordOrder.xlsx
+++ b/StructureDefinition-MedRecordOrder.xlsx
@@ -588,7 +588,7 @@
     <t>basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.hl7belgium.be/fhir/StructureDefinition/related-tl}
+    <t xml:space="preserve">Extension {http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/related-tl}
 </t>
   </si>
   <si>
@@ -598,7 +598,7 @@
     <t>Extension for connecting several resources to a single Treatment Line</t>
   </si>
   <si>
-    <t>https://www.hl7belgium.be/fhir/StructureDefinition/related-tl</t>
+    <t>http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/related-tl</t>
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
